--- a/seeds/content.xlsx
+++ b/seeds/content.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaj4334/Code/HomeschoolTrackerDatabase/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DB6F599D-B931-034A-8A11-F5FFBC0EB326}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A3BA9-623D-4A47-8335-D615D0FAA83B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31180" yWindow="1900" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{FABF2887-F1E8-7043-BC45-776F8653D117}"/>
+    <workbookView xWindow="3000" yWindow="1360" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{FABF2887-F1E8-7043-BC45-776F8653D117}"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
     <sheet name="subject_lessons" sheetId="2" r:id="rId2"/>
     <sheet name="subject_workbooks" sheetId="3" r:id="rId3"/>
+    <sheet name="lesson_tasks" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="159">
   <si>
     <t>Bible</t>
   </si>
@@ -44,9 +45,6 @@
     <t>Seatwork</t>
   </si>
   <si>
-    <t>Reading Circle - AM</t>
-  </si>
-  <si>
     <t>Phonics/Language</t>
   </si>
   <si>
@@ -56,9 +54,6 @@
     <t>Arithmetic</t>
   </si>
   <si>
-    <t>Reading Circle - PM</t>
-  </si>
-  <si>
     <t>Spelling/Poetry</t>
   </si>
   <si>
@@ -354,16 +349,201 @@
   </si>
   <si>
     <t>King James Bible</t>
+  </si>
+  <si>
+    <t>lesson_id</t>
+  </si>
+  <si>
+    <t>workbook_id</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Memorization: Paslm 34:8-19 (combined passages from L 26-65)</t>
+  </si>
+  <si>
+    <t>Lesson: "Who Am I?" (review game)</t>
+  </si>
+  <si>
+    <t>classwork</t>
+  </si>
+  <si>
+    <t>Watch Video</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>Seatwork Explanation</t>
+  </si>
+  <si>
+    <t>AR: p 131</t>
+  </si>
+  <si>
+    <t>LS: p 66</t>
+  </si>
+  <si>
+    <t>LA: p 66</t>
+  </si>
+  <si>
+    <t>WT: Copy Spelling List 10</t>
+  </si>
+  <si>
+    <t>need asset</t>
+  </si>
+  <si>
+    <t>need asset (display 101-200 counting chart appendix b)</t>
+  </si>
+  <si>
+    <t>Teacher's Choice</t>
+  </si>
+  <si>
+    <t>SP: p 20</t>
+  </si>
+  <si>
+    <t>BF: p 52</t>
+  </si>
+  <si>
+    <t>WT: Copy; write the before and after numbers by ones</t>
+  </si>
+  <si>
+    <t>WT: Copy; write two words (not the clue word) for each special sound.</t>
+  </si>
+  <si>
+    <t>WT: (in cursive)Write one row of each - Oliva, Peter, Rachel, Samuel, Taylor</t>
+  </si>
+  <si>
+    <t>WT: (in cursive) Look unto me and be ye saved. Isaiah 45:22</t>
+  </si>
+  <si>
+    <t>seatwork</t>
+  </si>
+  <si>
+    <t>Reading Circle - AM - 2 Monkeys</t>
+  </si>
+  <si>
+    <t>Reading Circle - AM - 3 Giraffes</t>
+  </si>
+  <si>
+    <t>Reading Circle - AM - 1 Elephants</t>
+  </si>
+  <si>
+    <t>Reading Circle - PM - 3 Giraffes</t>
+  </si>
+  <si>
+    <t>Reading Circle - PM - 2 Monkeys</t>
+  </si>
+  <si>
+    <t>Reading Circle - PM - 1 Elephants</t>
+  </si>
+  <si>
+    <t>Reading Circle - AM - 3 Owls</t>
+  </si>
+  <si>
+    <t>Reading Circle - AM - 2 Frogs</t>
+  </si>
+  <si>
+    <t>Reading Circle - AM - 1 Ducks</t>
+  </si>
+  <si>
+    <t>Reading Circle - PM - 3 Owls</t>
+  </si>
+  <si>
+    <t>Reading Circle - PM - 2 Frogs</t>
+  </si>
+  <si>
+    <t>Reading Circle - PM - 1 Ducks</t>
+  </si>
+  <si>
+    <t>basement</t>
+  </si>
+  <si>
+    <t>SAS: Read orally / check comprehension p 103-107</t>
+  </si>
+  <si>
+    <t>SAS: Re-read / check comprehension p 100-108</t>
+  </si>
+  <si>
+    <t>SS: Read orally / check comprehension p 30-35</t>
+  </si>
+  <si>
+    <t>TT: Read orally / check comprehension p 49-52</t>
+  </si>
+  <si>
+    <t>Have minisheet ready.</t>
+  </si>
+  <si>
+    <t>CFF: Vv</t>
+  </si>
+  <si>
+    <t>WP: p 70</t>
+  </si>
+  <si>
+    <t>LST</t>
+  </si>
+  <si>
+    <t>ARTSD</t>
+  </si>
+  <si>
+    <t>Lesson 66 Speed Drill</t>
+  </si>
+  <si>
+    <t>AR: p 131-132</t>
+  </si>
+  <si>
+    <t>TT: p 53</t>
+  </si>
+  <si>
+    <t>SS: p 36</t>
+  </si>
+  <si>
+    <t>SAS: p 117</t>
+  </si>
+  <si>
+    <t>SAS: Read orally / check comprehension p 108-116</t>
+  </si>
+  <si>
+    <t>HR: Read orally p 63</t>
+  </si>
+  <si>
+    <t>HR: Read orally p 106</t>
+  </si>
+  <si>
+    <t>DGW: p 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,9 +569,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,26 +889,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088B32DA-0EA6-4A49-9794-6A9506638F98}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -741,7 +924,6 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -753,11 +935,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A21" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -765,11 +946,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -777,11 +957,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -789,11 +968,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -801,11 +979,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -813,11 +990,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -825,11 +1001,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -837,11 +1012,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -849,59 +1023,54 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
@@ -909,11 +1078,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -921,11 +1089,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -933,11 +1100,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -945,11 +1111,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
+      <c r="B20" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -957,13 +1122,100 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
         <v>2</v>
       </c>
     </row>
@@ -974,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E091CE7-ED1B-BB48-B37F-A5C9E0A8C9EF}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,15 +1239,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1003,7 +1255,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <f>B2+1</f>
@@ -1012,7 +1264,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B21" si="0">B3+1</f>
@@ -1021,7 +1273,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -1030,7 +1282,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -1039,7 +1291,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -1048,7 +1300,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -1057,7 +1309,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -1066,7 +1318,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -1075,7 +1327,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -1084,7 +1336,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -1093,7 +1345,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -1102,7 +1354,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -1111,7 +1363,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -1120,7 +1372,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -1129,7 +1381,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -1138,7 +1390,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -1147,7 +1399,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -1156,7 +1408,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -1165,11 +1417,75 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1179,27 +1495,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747A7618-1A05-E441-A43A-D1AC4F1F9381}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1207,10 +1523,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1218,10 +1534,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1229,10 +1545,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1240,10 +1556,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1251,10 +1567,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1262,10 +1578,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1273,10 +1589,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1284,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1295,10 +1611,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1306,10 +1622,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1317,10 +1633,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1328,10 +1644,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1339,10 +1655,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1350,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1361,86 +1677,92 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1451,128 +1773,128 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
@@ -1583,449 +1905,2583 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>18</v>
+      </c>
+      <c r="B100" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>18</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>19</v>
+      </c>
+      <c r="B108" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>19</v>
+      </c>
+      <c r="B109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>19</v>
+      </c>
+      <c r="B111" t="s">
+        <v>71</v>
+      </c>
+      <c r="C111" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>70</v>
+      </c>
+      <c r="C112" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>19</v>
+      </c>
+      <c r="B116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>19</v>
+      </c>
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>75</v>
+      </c>
+      <c r="C118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>69</v>
+      </c>
+      <c r="C119" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
+        <v>68</v>
+      </c>
+      <c r="C120" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
         <v>20</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B121" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>92</v>
+      </c>
+      <c r="C123" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>91</v>
+      </c>
+      <c r="C124" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>22</v>
+      </c>
+      <c r="B126" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>22</v>
+      </c>
+      <c r="B127" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>23</v>
+      </c>
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>23</v>
+      </c>
+      <c r="B129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>23</v>
+      </c>
+      <c r="B130" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>23</v>
+      </c>
+      <c r="B131" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>23</v>
+      </c>
+      <c r="B132" t="s">
+        <v>70</v>
+      </c>
+      <c r="C132" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>23</v>
+      </c>
+      <c r="B133" t="s">
+        <v>72</v>
+      </c>
+      <c r="C133" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>23</v>
+      </c>
+      <c r="B135" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>23</v>
+      </c>
+      <c r="B136" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>23</v>
+      </c>
+      <c r="B137" t="s">
+        <v>66</v>
+      </c>
+      <c r="C137" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>23</v>
+      </c>
+      <c r="B138" t="s">
+        <v>75</v>
+      </c>
+      <c r="C138" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>23</v>
+      </c>
+      <c r="B139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>23</v>
+      </c>
+      <c r="B140" t="s">
+        <v>68</v>
+      </c>
+      <c r="C140" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>24</v>
+      </c>
+      <c r="B141" t="s">
+        <v>67</v>
+      </c>
+      <c r="C141" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>24</v>
+      </c>
+      <c r="B142" t="s">
+        <v>73</v>
+      </c>
+      <c r="C142" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>24</v>
+      </c>
+      <c r="B143" t="s">
+        <v>65</v>
+      </c>
+      <c r="C143" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>24</v>
+      </c>
+      <c r="B144" t="s">
+        <v>71</v>
+      </c>
+      <c r="C144" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>24</v>
+      </c>
+      <c r="B145" t="s">
+        <v>70</v>
+      </c>
+      <c r="C145" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>24</v>
+      </c>
+      <c r="B146" t="s">
+        <v>72</v>
+      </c>
+      <c r="C146" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>24</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>24</v>
+      </c>
+      <c r="B148" t="s">
+        <v>74</v>
+      </c>
+      <c r="C148" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>24</v>
+      </c>
+      <c r="B149" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>24</v>
+      </c>
+      <c r="B150" t="s">
+        <v>66</v>
+      </c>
+      <c r="C150" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>24</v>
+      </c>
+      <c r="B151" t="s">
+        <v>75</v>
+      </c>
+      <c r="C151" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>24</v>
+      </c>
+      <c r="B152" t="s">
+        <v>69</v>
+      </c>
+      <c r="C152" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>24</v>
+      </c>
+      <c r="B153" t="s">
+        <v>68</v>
+      </c>
+      <c r="C153" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>25</v>
+      </c>
+      <c r="B154" t="s">
+        <v>67</v>
+      </c>
+      <c r="C154" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>25</v>
+      </c>
+      <c r="B155" t="s">
+        <v>73</v>
+      </c>
+      <c r="C155" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>25</v>
+      </c>
+      <c r="B156" t="s">
+        <v>65</v>
+      </c>
+      <c r="C156" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>25</v>
+      </c>
+      <c r="B157" t="s">
+        <v>71</v>
+      </c>
+      <c r="C157" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>25</v>
+      </c>
+      <c r="B158" t="s">
+        <v>70</v>
+      </c>
+      <c r="C158" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>25</v>
+      </c>
+      <c r="B159" t="s">
+        <v>72</v>
+      </c>
+      <c r="C159" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>25</v>
+      </c>
+      <c r="B160" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>25</v>
+      </c>
+      <c r="B161" t="s">
+        <v>74</v>
+      </c>
+      <c r="C161" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>25</v>
+      </c>
+      <c r="B162" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>25</v>
+      </c>
+      <c r="B163" t="s">
+        <v>66</v>
+      </c>
+      <c r="C163" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>25</v>
+      </c>
+      <c r="B164" t="s">
+        <v>75</v>
+      </c>
+      <c r="C164" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>25</v>
+      </c>
+      <c r="B165" t="s">
+        <v>69</v>
+      </c>
+      <c r="C165" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>25</v>
+      </c>
+      <c r="B166" t="s">
+        <v>68</v>
+      </c>
+      <c r="C166" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>26</v>
+      </c>
+      <c r="B167" t="s">
+        <v>90</v>
+      </c>
+      <c r="C167" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>28</v>
+      </c>
+      <c r="B168" t="s">
+        <v>102</v>
+      </c>
+      <c r="C168" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>28</v>
+      </c>
+      <c r="B169" t="s">
         <v>97</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C169" t="s">
         <v>98</v>
       </c>
     </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>28</v>
+      </c>
+      <c r="B170" t="s">
+        <v>99</v>
+      </c>
+      <c r="C170" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>28</v>
+      </c>
+      <c r="B171" t="s">
+        <v>95</v>
+      </c>
+      <c r="C171" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C77">
-    <sortCondition ref="A2:A77"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C171">
+    <sortCondition ref="A2:A171"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C439C0-2798-8345-AF5F-2DD7A561FEC9}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="64.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>66</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2">
+        <v>66</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="2">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2">
+        <v>66</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="2">
+        <v>66</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="2">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="2">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="2">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="2">
+        <v>66</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="2">
+        <v>66</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="3">
+        <v>11</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="2">
+        <v>66</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="3">
+        <v>11</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="2">
+        <v>66</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="2">
+        <v>66</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="2">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="3">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="2">
+        <v>66</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="2">
+        <v>66</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="3">
+        <v>21</v>
+      </c>
+      <c r="I23" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="2">
+        <v>66</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>66</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>66</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="3">
+        <v>31</v>
+      </c>
+      <c r="I27" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>66</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="3">
+        <v>31</v>
+      </c>
+      <c r="I28" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>66</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="3">
+        <v>36</v>
+      </c>
+      <c r="I30" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2">
+        <v>66</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="3">
+        <v>36</v>
+      </c>
+      <c r="I31" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>66</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="2">
+        <v>66</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="3">
+        <v>41</v>
+      </c>
+      <c r="I33" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="2">
+        <v>66</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" s="3">
+        <v>41</v>
+      </c>
+      <c r="I34" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="2">
+        <v>66</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="2">
+        <v>66</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="3">
+        <v>46</v>
+      </c>
+      <c r="I36" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="2">
+        <v>66</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="3">
+        <v>46</v>
+      </c>
+      <c r="I37" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="2">
+        <v>66</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="2">
+        <v>66</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="3">
+        <v>51</v>
+      </c>
+      <c r="I39" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="2">
+        <v>66</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="3">
+        <v>51</v>
+      </c>
+      <c r="I40" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="2">
+        <v>66</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2">
+        <v>66</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2">
+        <v>66</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H43" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2">
+        <v>66</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="3">
+        <v>66</v>
+      </c>
+      <c r="I44" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2">
+        <v>66</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="3">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
+    <sortCondition ref="H2:H45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
